--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H2">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J2">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>365.0847247433154</v>
+        <v>551.902243292056</v>
       </c>
       <c r="R2">
-        <v>365.0847247433154</v>
+        <v>4967.120189628504</v>
       </c>
       <c r="S2">
-        <v>0.007767167119017511</v>
+        <v>0.01123937508316612</v>
       </c>
       <c r="T2">
-        <v>0.007767167119017511</v>
+        <v>0.01123937508316612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H3">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J3">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>388.6113552898084</v>
+        <v>581.725408799466</v>
       </c>
       <c r="R3">
-        <v>388.6113552898084</v>
+        <v>5235.528679195193</v>
       </c>
       <c r="S3">
-        <v>0.008267695513708557</v>
+        <v>0.01184671768301807</v>
       </c>
       <c r="T3">
-        <v>0.008267695513708557</v>
+        <v>0.01184671768301807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H4">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J4">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>250.5863081051695</v>
+        <v>375.846446860918</v>
       </c>
       <c r="R4">
-        <v>250.5863081051695</v>
+        <v>3382.618021748262</v>
       </c>
       <c r="S4">
-        <v>0.005331216566672038</v>
+        <v>0.00765403518700632</v>
       </c>
       <c r="T4">
-        <v>0.005331216566672038</v>
+        <v>0.007654035187006322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H5">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J5">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>194.2992279980456</v>
+        <v>293.150836966522</v>
       </c>
       <c r="R5">
-        <v>194.2992279980456</v>
+        <v>2638.357532698698</v>
       </c>
       <c r="S5">
-        <v>0.004133710540801088</v>
+        <v>0.005969956188178164</v>
       </c>
       <c r="T5">
-        <v>0.004133710540801088</v>
+        <v>0.005969956188178164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.25210104186529</v>
+        <v>3.371178</v>
       </c>
       <c r="H6">
-        <v>2.25210104186529</v>
+        <v>10.113534</v>
       </c>
       <c r="I6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="J6">
-        <v>0.02823257787110811</v>
+        <v>0.04081104787649455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>128.4508479432439</v>
+        <v>201.37517151334</v>
       </c>
       <c r="R6">
-        <v>128.4508479432439</v>
+        <v>1812.37654362006</v>
       </c>
       <c r="S6">
-        <v>0.002732788130908919</v>
+        <v>0.00410096373512587</v>
       </c>
       <c r="T6">
-        <v>0.002732788130908919</v>
+        <v>0.00410096373512587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H7">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J7">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>9600.491227772656</v>
+        <v>9704.469734711085</v>
       </c>
       <c r="R7">
-        <v>9600.491227772656</v>
+        <v>87340.22761239976</v>
       </c>
       <c r="S7">
-        <v>0.2042501773888231</v>
+        <v>0.1976295198240978</v>
       </c>
       <c r="T7">
-        <v>0.2042501773888231</v>
+        <v>0.1976295198240978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H8">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J8">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>10219.16189480606</v>
+        <v>10228.8705875389</v>
       </c>
       <c r="R8">
-        <v>10219.16189480606</v>
+        <v>92059.83528785012</v>
       </c>
       <c r="S8">
-        <v>0.2174123782063486</v>
+        <v>0.2083088347761574</v>
       </c>
       <c r="T8">
-        <v>0.2174123782063486</v>
+        <v>0.2083088347761574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H9">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J9">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>6589.570830319066</v>
+        <v>6608.761810251147</v>
       </c>
       <c r="R9">
-        <v>6589.570830319066</v>
+        <v>59478.85629226032</v>
       </c>
       <c r="S9">
-        <v>0.1401929317028439</v>
+        <v>0.1345860679558968</v>
       </c>
       <c r="T9">
-        <v>0.1401929317028439</v>
+        <v>0.1345860679558968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H10">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J10">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>5109.41134354428</v>
+        <v>5154.669073416656</v>
       </c>
       <c r="R10">
-        <v>5109.41134354428</v>
+        <v>46392.0216607499</v>
       </c>
       <c r="S10">
-        <v>0.1087025807859107</v>
+        <v>0.1049737699925744</v>
       </c>
       <c r="T10">
-        <v>0.1087025807859107</v>
+        <v>0.1049737699925744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.2226265059074</v>
+        <v>59.27769866666666</v>
       </c>
       <c r="H11">
-        <v>59.2226265059074</v>
+        <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="J11">
-        <v>0.7424211362980195</v>
+        <v>0.7176082064767123</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>3377.82206512778</v>
+        <v>3540.915589718515</v>
       </c>
       <c r="R11">
-        <v>3377.82206512778</v>
+        <v>31868.24030746663</v>
       </c>
       <c r="S11">
-        <v>0.0718630682140932</v>
+        <v>0.07211001392798574</v>
       </c>
       <c r="T11">
-        <v>0.0718630682140932</v>
+        <v>0.07211001392798574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H12">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J12">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>2965.75204771336</v>
+        <v>2.328912132690222</v>
       </c>
       <c r="R12">
-        <v>2965.75204771336</v>
+        <v>20.960209194212</v>
       </c>
       <c r="S12">
-        <v>0.06309629033193298</v>
+        <v>4.742781409784951E-05</v>
       </c>
       <c r="T12">
-        <v>0.06309629033193298</v>
+        <v>4.742781409784951E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H13">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J13">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>3156.869747223013</v>
+        <v>2.454759658823</v>
       </c>
       <c r="R13">
-        <v>3156.869747223013</v>
+        <v>22.092836929407</v>
       </c>
       <c r="S13">
-        <v>0.06716231394477334</v>
+        <v>4.999067294955079E-05</v>
       </c>
       <c r="T13">
-        <v>0.06716231394477334</v>
+        <v>4.999067294955079E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H14">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J14">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>2035.628461076677</v>
+        <v>1.585993463084555</v>
       </c>
       <c r="R14">
-        <v>2035.628461076677</v>
+        <v>14.273941167761</v>
       </c>
       <c r="S14">
-        <v>0.04330793752197512</v>
+        <v>3.229842898396038E-05</v>
       </c>
       <c r="T14">
-        <v>0.04330793752197512</v>
+        <v>3.229842898396038E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>18.2948582175422</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H15">
-        <v>18.2948582175422</v>
+        <v>0.042677</v>
       </c>
       <c r="I15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="J15">
-        <v>0.2293462858308724</v>
+        <v>0.0001722140935329982</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>1578.38248014752</v>
+        <v>1.237035270679889</v>
       </c>
       <c r="R15">
-        <v>1578.38248014752</v>
+        <v>11.133317436119</v>
       </c>
       <c r="S15">
-        <v>0.03358004230293286</v>
+        <v>2.51919675400191E-05</v>
       </c>
       <c r="T15">
-        <v>0.03358004230293286</v>
+        <v>2.51919675400191E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01422566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.042677</v>
+      </c>
+      <c r="I16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="J16">
+        <v>0.0001722140935329982</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>0.8497611413255555</v>
+      </c>
+      <c r="R16">
+        <v>7.647850271929999</v>
+      </c>
+      <c r="S16">
+        <v>1.730520996161844E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.730520996161844E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H17">
+        <v>59.824325</v>
+      </c>
+      <c r="I17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J17">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N17">
+        <v>491.135956</v>
+      </c>
+      <c r="O17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q17">
+        <v>3264.653005658855</v>
+      </c>
+      <c r="R17">
+        <v>29381.8770509297</v>
+      </c>
+      <c r="S17">
+        <v>0.06648398351874149</v>
+      </c>
+      <c r="T17">
+        <v>0.06648398351874149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H18">
+        <v>59.824325</v>
+      </c>
+      <c r="I18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J18">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q18">
+        <v>3441.065202013175</v>
+      </c>
+      <c r="R18">
+        <v>30969.58681811857</v>
+      </c>
+      <c r="S18">
+        <v>0.07007658142565398</v>
+      </c>
+      <c r="T18">
+        <v>0.07007658142565398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="H16">
-        <v>18.2948582175422</v>
-      </c>
-      <c r="I16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="J16">
-        <v>0.2293462858308724</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q16">
-        <v>1043.465638246121</v>
-      </c>
-      <c r="R16">
-        <v>1043.465638246121</v>
-      </c>
-      <c r="S16">
-        <v>0.02219970172925809</v>
-      </c>
-      <c r="T16">
-        <v>0.02219970172925809</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H19">
+        <v>59.824325</v>
+      </c>
+      <c r="I19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J19">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N19">
+        <v>334.464493</v>
+      </c>
+      <c r="O19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q19">
+        <v>2223.234725576914</v>
+      </c>
+      <c r="R19">
+        <v>20009.11253019223</v>
+      </c>
+      <c r="S19">
+        <v>0.04527571554996521</v>
+      </c>
+      <c r="T19">
+        <v>0.04527571554996522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H20">
+        <v>59.824325</v>
+      </c>
+      <c r="I20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J20">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N20">
+        <v>260.873947</v>
+      </c>
+      <c r="O20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q20">
+        <v>1734.067532151197</v>
+      </c>
+      <c r="R20">
+        <v>15606.60778936077</v>
+      </c>
+      <c r="S20">
+        <v>0.03531392678734571</v>
+      </c>
+      <c r="T20">
+        <v>0.03531392678734571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.94144166666667</v>
+      </c>
+      <c r="H21">
+        <v>59.824325</v>
+      </c>
+      <c r="I21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="J21">
+        <v>0.2414085315532602</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>1191.189321907139</v>
+      </c>
+      <c r="R21">
+        <v>10720.70389716425</v>
+      </c>
+      <c r="S21">
+        <v>0.02425832427155374</v>
+      </c>
+      <c r="T21">
+        <v>0.02425832427155374</v>
       </c>
     </row>
   </sheetData>
